--- a/common_materials/list_of_hypothesis_result.xlsx
+++ b/common_materials/list_of_hypothesis_result.xlsx
@@ -412,6 +412,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,12 +473,6 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294F834C-6248-4BD3-9F86-38BF1D576EE0}">
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -899,48 +899,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="16"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:8" ht="36.5" customHeight="1">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="8" t="s">
         <v>44</v>
       </c>
@@ -952,12 +952,12 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="36" customHeight="1">
-      <c r="B5" s="25"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="6" t="s">
         <v>28</v>
       </c>
@@ -969,16 +969,16 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="36" customHeight="1">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
@@ -990,8 +990,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17" customHeight="1">
-      <c r="B7" s="24"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -1007,8 +1007,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="17" customHeight="1">
-      <c r="B8" s="24"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1024,8 +1024,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="17" customHeight="1">
-      <c r="B9" s="24"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="13"/>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -1041,8 +1041,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="17" customHeight="1">
-      <c r="B10" s="24"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="13"/>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -1058,8 +1058,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17" customHeight="1">
-      <c r="B11" s="24"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="14"/>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="53.5" customHeight="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="26" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="36.5" customHeight="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="13"/>
       <c r="E13" s="1" t="s">
         <v>20</v>
@@ -1104,11 +1104,11 @@
       <c r="G13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:8" ht="53.5" customHeight="1">
-      <c r="B14" s="24"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="14"/>
       <c r="E14" s="7" t="s">
         <v>21</v>
@@ -1119,17 +1119,17 @@
       <c r="G14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:8" ht="36" customHeight="1">
-      <c r="B15" s="24"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1141,8 +1141,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="36" customHeight="1">
-      <c r="B16" s="24"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="13"/>
       <c r="E16" s="1" t="s">
         <v>15</v>
@@ -1158,8 +1158,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="17.5" customHeight="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="13"/>
       <c r="E17" s="1" t="s">
         <v>16</v>
@@ -1175,8 +1175,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="36" customHeight="1">
-      <c r="B18" s="25"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="14"/>
       <c r="E18" s="7" t="s">
         <v>17</v>
@@ -1193,11 +1193,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C6:C14"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D12:E12"/>
@@ -1207,9 +1202,14 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/common_materials/list_of_hypothesis_result.xlsx
+++ b/common_materials/list_of_hypothesis_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/common_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{62A3D588-E2BE-4BFB-99AF-E0E70800B298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{455BE958-DF48-4115-9562-29522EF76158}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{62A3D588-E2BE-4BFB-99AF-E0E70800B298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A364A060-21C8-44EC-8A0E-19A45C9E0214}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F158DA73-6942-4B36-BC07-3199F1C62F4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F158DA73-6942-4B36-BC07-3199F1C62F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Processing</t>
     <phoneticPr fontId="2"/>
@@ -95,145 +95,162 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>H5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Marketing Phase</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPT-4o generated personalized ads for each OCEAN model personality trait, excluding neuroticism, will significantly affect the following relationships:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Personality-Aligned Messaging will significantly enhance Perceived Personalization.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Perceived Personalization will significantly increase Perceived Credibility.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Perceived Personalization will positively influence Overall Attitude Towards the Ad.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Perceived Credibility will positively influence Overall Attitude Towards the Ad.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPT-4o and Claude 3.5 Sonnet will outperform GPT-3.5 in all prediction tasks, while GPT-4o and Claude 3.5 Sonnet will achieve similar levels of accuracy within a 5% range in prediction tasks.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A Positive Overall Attitude Towards the Ad will significantly increase Engagement (Ad Clicks).</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPT-4o generated personalized advertisements leveraging blended personality traits will have a larger effect on the relationship between Personality-Aligned Messaging and Perceived Personalization:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Partially Supported</t>
+  </si>
+  <si>
+    <t>Partially Supported</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Supported</t>
+  </si>
+  <si>
+    <t>Supported</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPT-4o generated personalized conversations via LLM-powered chatbot agents tailored to individual personality traits will significantly influence the following:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Personality-Aligned Responses will significantly enhance Perceived Personalization.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Perceived Personalization will significantly influence Overall Attitude Towards AI Agents.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A Positive Overall Attitude Towards AI Agents will significantly increase Engagement (interaction duration and likelihood of future usage).</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPT-3.5, GPT-4, and Claude 3.5 Sonnet will outperform the SOTA models in personality detection tasks across all MBTI personality traits, except for the J-P trait.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Personality Prediction from Text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LLM-Powered Text Advertisement Personalization</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LLM-Powered Personalized Chatbot Conversations</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Performance fell short in both the J-P and N-S dimensions.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Statistically significant effects were not observed across all four traits.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Statistically significant effects were observed only for CO and AG.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPT-4o can effectively interpret a blended personality profile, discern ad preferences, and generate personalized advertisements that align with these preferences.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Consumers will demonstrate a stronger preference for advertisements tailored to a blended personality profile compared to those targeting a single personality trait.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>All traits showed significant effects, but only EX had significant model explainability.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>H5.1</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>H5.2</t>
-  </si>
-  <si>
-    <t>H5.3</t>
-  </si>
-  <si>
-    <t>H5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>H4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>H4.1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>H4.2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Marketing Phase</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPT-4o generated personalized ads for each OCEAN model personality trait, excluding neuroticism, will significantly affect the following relationships:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Personality-Aligned Messaging will significantly enhance Perceived Personalization.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Perceived Personalization will significantly increase Perceived Credibility.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Perceived Personalization will positively influence Overall Attitude Towards the Ad.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Perceived Credibility will positively influence Overall Attitude Towards the Ad.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPT-4o and Claude 3.5 Sonnet will outperform GPT-3.5 in all prediction tasks, while GPT-4o and Claude 3.5 Sonnet will achieve similar levels of accuracy within a 5% range in prediction tasks.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A Positive Overall Attitude Towards the Ad will significantly increase Engagement (Ad Clicks).</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPT-4o generated personalized advertisements leveraging blended personality traits will have a larger effect on the relationship between Personality-Aligned Messaging and Perceived Personalization:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Partially Supported</t>
-  </si>
-  <si>
-    <t>Partially Supported</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Supported</t>
-  </si>
-  <si>
-    <t>Supported</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Blended personality advertisements will be preferred over single personality advertisements among groups with similar personality alignment.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Blended personality advertisements will elicit positive responses from a broader range of individuals compared to single trait advertisements, demonstrating more consistent effects across diverse personality profiles.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Not Supported</t>
-  </si>
-  <si>
-    <t>Not Supported</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPT-4o generated personalized conversations via LLM-powered chatbot agents tailored to individual personality traits will significantly influence the following:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Personality-Aligned Responses will significantly enhance Perceived Personalization.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Perceived Personalization will significantly influence Overall Attitude Towards AI Agents.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A Positive Overall Attitude Towards AI Agents will significantly increase Engagement (interaction duration and likelihood of future usage).</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPT-3.5, GPT-4, and Claude 3.5 Sonnet will outperform the SOTA models in personality detection tasks across all MBTI personality traits, except for the J-P trait.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Remarks</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Personality Prediction from Text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LLM-Powered Text Advertisement Personalization</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LLM-Powered Personalized Chatbot Conversations</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Performance fell short in both the J-P and N-S dimensions.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Statistically significant effects were not observed across all four traits.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Statistically significant effects were observed only for CO and AG.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H6.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H6.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H6.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Not 
+Supported</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Perceived credibility and overall attitude towards an ad will maintain a consistently positive relationship with perceived personalization, without a diminishing rate of increase, regardless of the alignment between GPT-4o generated ads and OCEAN.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Supported for EX and AG; slight diminishing return observed for AG at higher personalization levels.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -366,7 +383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,101 +396,119 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,23 +531,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>42333</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>499533</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65689200-939B-E4E9-D93A-697F602684F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034CACA4-5473-1FB8-45F4-01445EC3B752}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -535,8 +570,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="698500" y="338667"/>
-          <a:ext cx="12268200" cy="6350000"/>
+          <a:off x="476251" y="841375"/>
+          <a:ext cx="11250612" cy="8726488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -879,337 +914,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294F834C-6248-4BD3-9F86-38BF1D576EE0}">
-  <dimension ref="B2:H18"/>
+  <dimension ref="C2:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="74.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.08203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="1" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.9140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="1.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="3:9" ht="5.5" customHeight="1"/>
+    <row r="3" spans="3:9">
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="3:9" ht="42">
+      <c r="C5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="42">
+      <c r="C6" s="25"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="10" customHeight="1">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="3:9" ht="42">
+      <c r="C8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="28">
+      <c r="C9" s="25"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="28">
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="28">
+      <c r="C11" s="25"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="28">
+      <c r="C12" s="25"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="18"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="2:8" ht="36.5" customHeight="1">
-      <c r="B4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="H12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="28">
+      <c r="C13" s="25"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="10" customHeight="1">
+      <c r="C14" s="25"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="3:9" ht="56">
+      <c r="C15" s="25"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="10" customHeight="1">
+      <c r="C16" s="25"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="3:9" ht="56">
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="42">
+      <c r="C18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="8" t="s">
+      <c r="G18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="3:9" ht="42">
+      <c r="C19" s="25"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="3:9" ht="10" customHeight="1">
+      <c r="C20" s="25"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="3:9" ht="42">
+      <c r="C21" s="25"/>
+      <c r="D21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="28">
+      <c r="C22" s="25"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="28">
+      <c r="C23" s="25"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="36" customHeight="1">
-      <c r="B5" s="27"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="36" customHeight="1">
-      <c r="B6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="17" customHeight="1">
-      <c r="B7" s="26"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="17" customHeight="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="17" customHeight="1">
-      <c r="B9" s="26"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="H23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="17" customHeight="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
+    </row>
+    <row r="24" spans="3:9" ht="42">
+      <c r="C24" s="26"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="17" customHeight="1">
-      <c r="B11" s="26"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="53.5" customHeight="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="36.5" customHeight="1">
-      <c r="B13" s="26"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:8" ht="53.5" customHeight="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="2:8" ht="36" customHeight="1">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="36" customHeight="1">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="17.5" customHeight="1">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="I24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="36" customHeight="1">
-      <c r="B18" s="27"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
+    </row>
+    <row r="25" spans="3:9" ht="6.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="G2:G3"/>
+  <mergeCells count="18">
+    <mergeCell ref="C8:C24"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1220,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F61F6-0D3E-4196-B241-CA6E54C68D3F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
